--- a/ZYPP-自由匹配、排行榜、商城.xlsx
+++ b/ZYPP-自由匹配、排行榜、商城.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="自由匹配" sheetId="1" r:id="rId1"/>
-    <sheet name="商城" sheetId="2" r:id="rId2"/>
-    <sheet name="排行榜" sheetId="3" r:id="rId3"/>
+    <sheet name="排行榜" sheetId="3" r:id="rId2"/>
+    <sheet name="商城" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>自由匹配</t>
   </si>
@@ -30,7 +30,7 @@
     <t>2.匹配成功后弹出窗口，玩家可以选择立即进入，或者暂时挂起。</t>
   </si>
   <si>
-    <t>3.不过20S后会自动进入战斗界面。</t>
+    <t>3.20S后若玩家还没有点击进入游戏，取消这次匹配。</t>
   </si>
   <si>
     <t>4.进入战斗界面不能退出游戏，退出提示其：“匹配成功后不能离开游戏。”</t>
@@ -138,7 +138,7 @@
     <t>2.服务器端永远只以排在第一位的玩家作为Rank分标准，去搜寻其他玩家。</t>
   </si>
   <si>
-    <t>3.当一位玩家找齐另外11个玩家进入游戏后，将这12个人移除队列。</t>
+    <t>3.当一位玩家找齐另外11个玩家且都进入游戏后，将这12个人的队列移除。</t>
   </si>
   <si>
     <t>4.继续去以排在第一位的玩家作为rank分标准去搜寻其他11名玩家。</t>
@@ -157,6 +157,66 @@
   </si>
   <si>
     <t>4.若找不齐11人，寻找到5分钟后，提示玩家，当前人少，是否继续寻找队伍。</t>
+  </si>
+  <si>
+    <t>玩家超时未点击进入</t>
+  </si>
+  <si>
+    <t>1.当玩家匹配成功后，超时未进入游戏。取消此次匹配，并将超时玩家至于队列末端。</t>
+  </si>
+  <si>
+    <t>2.其余11位玩家队列位置不变，继续以第1位玩家的rank分为标准去找其他11个人。</t>
+  </si>
+  <si>
+    <t>组队匹配机制</t>
+  </si>
+  <si>
+    <t>1.玩家可选择组队去匹配。把小队作为1个单位，多个对象加入到队列中。去小队平均Rank作为匹配标准。</t>
+  </si>
+  <si>
+    <t>2.加入小队匹配后，有可能碰到的对手也是组好队伍的。</t>
+  </si>
+  <si>
+    <t>3.匹配的对手中且符合rank分要求，则优先考虑队伍。</t>
+  </si>
+  <si>
+    <t>4.对手中优先考虑队伍，但当到了临界状态时，还是以凑齐人数为优先考虑，比如队列中11个人，还有需选区1个人，这事有1个队伍2个人，和1个单人，则选取这个单人。凑成12人匹配局。</t>
+  </si>
+  <si>
+    <t>Rank分榜单</t>
+  </si>
+  <si>
+    <t>魅力榜</t>
+  </si>
+  <si>
+    <t>Mvp榜</t>
+  </si>
+  <si>
+    <t>战斗力榜</t>
+  </si>
+  <si>
+    <t>1.排行榜共有：Rank分榜单、魅力榜、MVP榜、战斗力榜、狼人榜、预言家榜、女巫榜、猎人榜、平民榜，共7个榜单。可左右滑动列表。</t>
+  </si>
+  <si>
+    <t>2.每个榜单显示排名前100的玩家。</t>
+  </si>
+  <si>
+    <t>3.Rank分榜：Rank分由高到低排列，若相同rank分则，按胜场多少。</t>
+  </si>
+  <si>
+    <t>4.魅力榜：魅力通过送礼物获得，按魅力值从高到低排列，若魅力值相同，按胜场多少。</t>
+  </si>
+  <si>
+    <t>5.MVP榜：按获胜MVP的次数排列，若MVP次数相同，则按胜场多少。</t>
+  </si>
+  <si>
+    <t>6.狼人榜、预言家榜、女巫榜、猎人榜、平民榜，按身份获得胜场多少排列。若胜场相同，则按rank分排列。</t>
+  </si>
+  <si>
+    <t>7.点击信息块，进入个人信息界面。</t>
+  </si>
+  <si>
+    <t>8.战斗力榜：按战斗力高低排序，若战斗力相同，则按rank分排序。</t>
   </si>
 </sst>
 </file>
@@ -164,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -185,13 +245,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -210,15 +270,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +292,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -240,72 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -315,46 +415,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -376,6 +436,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,7 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +508,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,67 +598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,72 +617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +645,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -600,29 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +701,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -653,17 +719,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,162 +732,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1050,6 +1113,221 @@
         <a:xfrm>
           <a:off x="962025" y="3057525"/>
           <a:ext cx="2899410" cy="1400810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="847725"/>
+          <a:ext cx="3371215" cy="5571490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666115</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="838200"/>
+          <a:ext cx="3352165" cy="5561965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>637540</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="809625"/>
+          <a:ext cx="3380740" cy="5590540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="96520" y="8667750"/>
+          <a:ext cx="3504565" cy="5666740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>618490</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13049250" y="809625"/>
+          <a:ext cx="3342640" cy="5523865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1353,21 +1631,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD84"/>
+  <dimension ref="A1:XFD94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="3" width="14.125" style="3"/>
-    <col min="4" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9.25" style="3"/>
-    <col min="8" max="12" width="9" style="3"/>
-    <col min="13" max="13" width="14.125" style="3"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="3" width="14.125" style="4"/>
+    <col min="4" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="9.25" style="4"/>
+    <col min="8" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="14.125" style="4"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
@@ -1375,302 +1653,342 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="10:10">
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="10:10">
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="10:10">
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="10:10">
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="11:13">
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="11:13">
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <v>1</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="11:13">
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>2</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="11:13">
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <v>3</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:1">
-      <c r="A34" s="4" t="s">
+    <row r="34" s="3" customFormat="1" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="5"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <v>1</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="4">
         <v>0.5</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="4">
         <f>ROUND(C67,3)</f>
         <v>0.429</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="4">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="4">
         <f>ROUND(G67,3)</f>
         <v>0.429</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="4">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="4">
         <f>ROUND(L67,3)</f>
         <v>0.429</v>
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <f>1800+20*(1-D67)</f>
         <v>1811.42</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="4">
         <f>ROUND(C69,0)</f>
         <v>1811</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="4">
         <f>1800+20*(G66-H67)</f>
         <v>1801.42</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="4">
         <f>ROUND(G69,0)</f>
         <v>1801</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K69" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="4">
         <f>1800+20*(L66-M67)</f>
         <v>1791.42</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="4">
         <f>ROUND(L69,0)</f>
         <v>1791</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="5"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1687,6 +2005,90 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:XFD39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1699,21 +2101,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/ZYPP-自由匹配、排行榜、商城.xlsx
+++ b/ZYPP-自由匹配、排行榜、商城.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="自由匹配" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>自由匹配</t>
   </si>
@@ -183,6 +183,9 @@
     <t>4.对手中优先考虑队伍，但当到了临界状态时，还是以凑齐人数为优先考虑，比如队列中11个人，还有需选区1个人，这事有1个队伍2个人，和1个单人，则选取这个单人。凑成12人匹配局。</t>
   </si>
   <si>
+    <t>排行榜</t>
+  </si>
+  <si>
     <t>Rank分榜单</t>
   </si>
   <si>
@@ -217,6 +220,15 @@
   </si>
   <si>
     <t>8.战斗力榜：按战斗力高低排序，若战斗力相同，则按rank分排序。</t>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>1.商城分为钻石商店、金币商店</t>
+  </si>
+  <si>
+    <t>2.以后可能增加新的代币。</t>
   </si>
 </sst>
 </file>
@@ -224,10 +236,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -270,6 +282,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -279,6 +342,76 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,133 +426,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -436,19 +448,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,163 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,30 +639,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,17 +657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,8 +684,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,171 +739,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1343,6 +1358,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647065</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1009650"/>
+          <a:ext cx="3390265" cy="5600065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1633,19 +1695,19 @@
   <sheetPr/>
   <dimension ref="A1:XFD94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="3" width="14.125" style="4"/>
-    <col min="4" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="9.25" style="4"/>
-    <col min="8" max="12" width="9" style="4"/>
-    <col min="13" max="13" width="14.125" style="4"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="3" width="14.125" style="5"/>
+    <col min="4" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="9.25" style="5"/>
+    <col min="8" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="14.125" style="5"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
@@ -1653,341 +1715,341 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="4" customFormat="1" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="10:10">
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="10:10">
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="10:10">
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="10:10">
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="11:13">
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="11:13">
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>1</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="11:13">
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>2</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="11:13">
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>3</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:1">
-      <c r="A34" s="5" t="s">
+    <row r="34" s="4" customFormat="1" spans="1:1">
+      <c r="A34" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="6"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="5">
         <v>1</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="5">
         <v>0.5</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="5">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="5">
         <f>ROUND(C67,3)</f>
         <v>0.429</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="5">
         <f>ROUND(G67,3)</f>
         <v>0.429</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="5">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="5">
         <f>ROUND(L67,3)</f>
         <v>0.429</v>
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="5">
         <f>1800+20*(1-D67)</f>
         <v>1811.42</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="5">
         <f>ROUND(C69,0)</f>
         <v>1811</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <f>1800+20*(G66-H67)</f>
         <v>1801.42</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="5">
         <f>ROUND(G69,0)</f>
         <v>1801</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="5">
         <f>1800+20*(L66-M67)</f>
         <v>1791.42</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69" s="5">
         <f>ROUND(L69,0)</f>
         <v>1791</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="6"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2007,72 +2069,72 @@
   <sheetPr/>
   <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="T3" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
-        <v>59</v>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>60</v>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>61</v>
+      <c r="B34" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
-        <v>62</v>
+      <c r="B35" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>63</v>
+      <c r="B36" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>64</v>
+      <c r="B37" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
-        <v>65</v>
+      <c r="B38" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
-        <v>66</v>
+      <c r="B39" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2089,16 +2151,39 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="H5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ZYPP-自由匹配、排行榜、商城.xlsx
+++ b/ZYPP-自由匹配、排行榜、商城.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="自由匹配" sheetId="1" r:id="rId1"/>
     <sheet name="排行榜" sheetId="3" r:id="rId2"/>
     <sheet name="商城" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>自由匹配</t>
   </si>
@@ -159,15 +159,6 @@
     <t>4.若找不齐11人，寻找到5分钟后，提示玩家，当前人少，是否继续寻找队伍。</t>
   </si>
   <si>
-    <t>玩家超时未点击进入</t>
-  </si>
-  <si>
-    <t>1.当玩家匹配成功后，超时未进入游戏。取消此次匹配，并将超时玩家至于队列末端。</t>
-  </si>
-  <si>
-    <t>2.其余11位玩家队列位置不变，继续以第1位玩家的rank分为标准去找其他11个人。</t>
-  </si>
-  <si>
     <t>组队匹配机制</t>
   </si>
   <si>
@@ -181,6 +172,30 @@
   </si>
   <si>
     <t>4.对手中优先考虑队伍，但当到了临界状态时，还是以凑齐人数为优先考虑，比如队列中11个人，还有需选区1个人，这事有1个队伍2个人，和1个单人，则选取这个单人。凑成12人匹配局。</t>
+  </si>
+  <si>
+    <t>普通队列：按点击匹配的先后顺序形成的队列。</t>
+  </si>
+  <si>
+    <t>搜索队列：以某个人为标准在普通队列中按rank分找人的搜索队列。</t>
+  </si>
+  <si>
+    <t>准备队列：匹配成功但还未进入游戏的队列，叫准备队列，队列位置在普通队列中保持不变。</t>
+  </si>
+  <si>
+    <t>准备队列形成后，寻找普通队列中的位置靠前第1人，以这个人为标准，在普通队列中寻找下一个搜索队 列。</t>
+  </si>
+  <si>
+    <t>若准备队列中有人取消，那么销毁这个准备队列，队员位置不变。等待正在搜索队列变成准备队列后，再 从普通队列中以位置靠前第1人为标准，去寻找搜索队列。</t>
+  </si>
+  <si>
+    <t>普通队列只有一个</t>
+  </si>
+  <si>
+    <t>搜索队列同时只会存在一个</t>
+  </si>
+  <si>
+    <t>准备队列可能会有多个。</t>
   </si>
   <si>
     <t>排行榜</t>
@@ -237,8 +252,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -290,7 +305,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,133 +441,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -448,91 +463,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,91 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +654,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +677,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,20 +716,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,28 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,10 +762,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,145 +774,142 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1101,19 +1113,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>256540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>337185</xdr:colOff>
+      <xdr:colOff>351790</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1126,8 +1138,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="3057525"/>
-          <a:ext cx="2899410" cy="1400810"/>
+          <a:off x="942340" y="2736215"/>
+          <a:ext cx="2933700" cy="1826260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,21 +1705,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD94"/>
+  <dimension ref="A1:XFD104"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="3" width="14.125" style="5"/>
-    <col min="4" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="9.25" style="5"/>
-    <col min="8" max="12" width="9" style="5"/>
-    <col min="13" max="13" width="14.125" style="5"/>
-    <col min="14" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="3" width="14.125" style="4"/>
+    <col min="4" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="9.25" style="4"/>
+    <col min="8" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="14.125" style="4"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
@@ -1715,342 +1727,372 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:1">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="10:10">
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="10:10">
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="10:10">
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="10:10">
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="10:10">
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="11:13">
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="11:13">
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>1</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="11:13">
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>2</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="11:13">
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>3</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1" spans="1:1">
-      <c r="A34" s="6" t="s">
+    <row r="34" s="3" customFormat="1" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>1</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <v>0.5</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <f>ROUND(C67,3)</f>
         <v>0.429</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <f>ROUND(G67,3)</f>
         <v>0.429</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="4">
         <f>1/(1+10^(50/400))</f>
         <v>0.428536882591619</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="4">
         <f>ROUND(L67,3)</f>
         <v>0.429</v>
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <f>1800+20*(1-D67)</f>
         <v>1811.42</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <f>ROUND(C69,0)</f>
         <v>1811</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <f>1800+20*(G66-H67)</f>
         <v>1801.42</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <f>ROUND(G69,0)</f>
         <v>1801</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="4">
         <f>1800+20*(L66-M67)</f>
         <v>1791.42</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="4">
         <f>ROUND(L69,0)</f>
         <v>1791</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="7" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="5" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="5" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="5" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="5" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="5" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" s="4" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2069,72 +2111,72 @@
   <sheetPr/>
   <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>59</v>
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>60</v>
+      <c r="B32" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>61</v>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>62</v>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>63</v>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
-        <v>64</v>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
-        <v>65</v>
+      <c r="B37" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>66</v>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>67</v>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2153,8 +2195,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -2164,17 +2206,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="8:8">
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/ZYPP-自由匹配、排行榜、商城.xlsx
+++ b/ZYPP-自由匹配、排行榜、商城.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="自由匹配" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>自由匹配</t>
   </si>
@@ -76,6 +76,54 @@
   </si>
   <si>
     <t>Rank分划分为以下几个阶段，初始大家都是1200分。</t>
+  </si>
+  <si>
+    <t>2400以上</t>
+  </si>
+  <si>
+    <t>神佑骑士</t>
+  </si>
+  <si>
+    <t>2200-2399</t>
+  </si>
+  <si>
+    <t>火龙骑士</t>
+  </si>
+  <si>
+    <t>2000-2199</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>1800-1999</t>
+  </si>
+  <si>
+    <t>圆桌骑士</t>
+  </si>
+  <si>
+    <t>1600-1799</t>
+  </si>
+  <si>
+    <t>黑衫骑士</t>
+  </si>
+  <si>
+    <t>1400-1599</t>
+  </si>
+  <si>
+    <t>黄金骑士</t>
+  </si>
+  <si>
+    <t>1200-1399</t>
+  </si>
+  <si>
+    <t>白银骑士</t>
+  </si>
+  <si>
+    <t>1200以下</t>
+  </si>
+  <si>
+    <t>青铜骑士</t>
   </si>
   <si>
     <t>新rank分(Rn)=原rank分(Ro)+20*（实际得分W-预期胜率We)</t>
@@ -251,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -297,6 +345,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -304,8 +381,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,49 +445,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -378,22 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -401,9 +466,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,37 +495,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -463,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,8 +708,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,35 +740,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +762,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -746,11 +788,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,148 +807,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1707,8 +1755,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38:R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1717,7 +1765,8 @@
     <col min="2" max="3" width="14.125" style="4"/>
     <col min="4" max="6" width="9" style="4"/>
     <col min="7" max="7" width="9.25" style="4"/>
-    <col min="8" max="12" width="9" style="4"/>
+    <col min="8" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="13.625" style="4" customWidth="1"/>
     <col min="13" max="13" width="14.125" style="4"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
@@ -1824,63 +1873,127 @@
         <v>19</v>
       </c>
     </row>
+    <row r="41" spans="12:13">
+      <c r="L41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="12:13">
+      <c r="L42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13">
+      <c r="L43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="12:13">
+      <c r="L44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13">
+      <c r="L45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="12:13">
+      <c r="L46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="12:13">
+      <c r="L47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13">
+      <c r="L48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="56" spans="2:8">
       <c r="B56" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:12">
       <c r="B66" s="4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G66" s="4">
         <v>0.5</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L66" s="4">
         <v>0</v>
@@ -1888,7 +2001,7 @@
     </row>
     <row r="67" spans="2:13">
       <c r="B67" s="4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C67" s="4">
         <f>1/(1+10^(50/400))</f>
@@ -1899,7 +2012,7 @@
         <v>0.429</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G67" s="4">
         <f>1/(1+10^(50/400))</f>
@@ -1910,7 +2023,7 @@
         <v>0.429</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="L67" s="4">
         <f>1/(1+10^(50/400))</f>
@@ -1923,18 +2036,18 @@
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C69" s="4">
         <f>1800+20*(1-D67)</f>
@@ -1945,7 +2058,7 @@
         <v>1811</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G69" s="4">
         <f>1800+20*(G66-H67)</f>
@@ -1956,7 +2069,7 @@
         <v>1801</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L69" s="4">
         <f>1800+20*(L66-M67)</f>
@@ -1969,7 +2082,7 @@
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="2:2">
@@ -1977,122 +2090,122 @@
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="6" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="4" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="4" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2122,61 +2235,61 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2206,17 +2319,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="8:8">
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/ZYPP-自由匹配、排行榜、商城.xlsx
+++ b/ZYPP-自由匹配、排行榜、商城.xlsx
@@ -299,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -346,21 +346,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,10 +457,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,52 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -442,59 +495,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -511,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,20 +705,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,26 +761,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,148 +807,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,6 +1188,48 @@
         <a:xfrm>
           <a:off x="942340" y="2736215"/>
           <a:ext cx="2933700" cy="1826260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561340</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>199390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="8553450"/>
+          <a:ext cx="3304540" cy="5857240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,8 +1797,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38:R49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
